--- a/illegal_working_Q3_2024_enriched.xlsx
+++ b/illegal_working_Q3_2024_enriched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickma/Develop/darkhorseone/system/research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D6A5D2-F1A0-F448-BA2D-AC63E176998C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262C129E-AC7E-EF4A-807C-804B7C037A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="50560" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2759,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="I225" sqref="I225"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6214,6 +6214,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6222,7 +6223,7 @@
   <dimension ref="A1:C399"/>
   <sheetViews>
     <sheetView topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="E419" sqref="E419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
